--- a/99_Thinktank/Zeitplan_CERED.xlsx
+++ b/99_Thinktank/Zeitplan_CERED.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scheffel\Scheffel\Forschung\A_Projects\2021_CERED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scheffel\Scheffel\Forschung\A_Projects\2021_CERED\CERED\99_Thinktank\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Kalenderwoche</t>
   </si>
@@ -111,13 +111,19 @@
   </si>
   <si>
     <t>Weihnachten und Jahreswechsel</t>
+  </si>
+  <si>
+    <t>Vorstellung Kolloquium</t>
+  </si>
+  <si>
+    <t>Einreichung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,8 +151,13 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +194,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -304,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -331,50 +348,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -661,7 +679,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -672,58 +690,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="21">
+      <c r="C3" s="26">
         <v>44470</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="21">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="26">
         <v>44501</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="21">
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="26">
         <v>44531</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="21">
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="26">
         <v>44562</v>
       </c>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
@@ -787,7 +805,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
-      <c r="B5" s="32"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="18"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -799,37 +817,37 @@
       <c r="K5" s="18"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
       <c r="T5" s="19"/>
     </row>
     <row r="6" spans="1:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="30"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="3"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="35"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="22"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
@@ -847,9 +865,9 @@
       <c r="K7" s="3"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="35"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -867,54 +885,46 @@
       <c r="K8" s="3"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="35"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="22"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="35"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="H9" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="36"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="22"/>
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
       <c r="S9" s="19"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="35"/>
+      <c r="A10" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="22"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
@@ -922,7 +932,7 @@
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="5"/>
@@ -935,9 +945,9 @@
       <c r="K11" s="18"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="35"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="22"/>
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
@@ -945,91 +955,104 @@
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="15"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
     </row>
     <row r="17" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
     </row>
     <row r="18" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
     </row>
     <row r="19" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
     </row>
     <row r="20" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
     </row>
     <row r="21" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
     </row>
     <row r="22" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
     </row>
     <row r="23" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C10:M10"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="P3:T3"/>
     <mergeCell ref="K3:O3"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:J6"/>
   </mergeCells>

--- a/99_Thinktank/Zeitplan_CERED.xlsx
+++ b/99_Thinktank/Zeitplan_CERED.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Kalenderwoche</t>
   </si>
@@ -117,13 +117,34 @@
   </si>
   <si>
     <t>Einreichung</t>
+  </si>
+  <si>
+    <t>Erstellung Auswertungsskripte</t>
+  </si>
+  <si>
+    <t>bis 31.10.</t>
+  </si>
+  <si>
+    <t>bis 30.11.</t>
+  </si>
+  <si>
+    <t>bis 10.10.</t>
+  </si>
+  <si>
+    <t>bis 10.12.</t>
+  </si>
+  <si>
+    <t>bis 14.01.</t>
+  </si>
+  <si>
+    <t>bis 30.01.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +174,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
@@ -321,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -393,6 +420,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -673,13 +712,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T23"/>
+  <dimension ref="A2:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -689,7 +728,7 @@
     <col min="3" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>7</v>
       </c>
@@ -711,9 +750,8 @@
       <c r="Q2" s="29"/>
       <c r="R2" s="29"/>
       <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="26">
@@ -741,9 +779,8 @@
       <c r="Q3" s="30"/>
       <c r="R3" s="30"/>
       <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
         <v>0</v>
@@ -799,11 +836,8 @@
       <c r="S4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="18"/>
@@ -825,9 +859,8 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
-      <c r="T5" s="19"/>
-    </row>
-    <row r="6" spans="1:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="31" t="s">
         <v>15</v>
       </c>
@@ -849,7 +882,7 @@
       <c r="O6" s="21"/>
       <c r="P6" s="22"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -857,7 +890,9 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="40" t="s">
+        <v>32</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -869,7 +904,7 @@
       <c r="O7" s="21"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -880,8 +915,10 @@
       <c r="F8" s="5"/>
       <c r="G8" s="13"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="41" t="s">
+        <v>33</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -889,14 +926,14 @@
       <c r="O8" s="21"/>
       <c r="P8" s="22"/>
     </row>
-    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="F9" s="4"/>
-      <c r="H9" s="36" t="s">
+      <c r="J9" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="36"/>
+      <c r="K9" s="36"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="22"/>
@@ -904,7 +941,7 @@
       <c r="R9" s="19"/>
       <c r="S9" s="19"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="31" t="s">
         <v>16</v>
       </c>
@@ -929,15 +966,17 @@
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="40" t="s">
+        <v>32</v>
+      </c>
       <c r="G11" s="18"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -952,96 +991,133 @@
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="D12" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="41" t="s">
+        <v>33</v>
+      </c>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="40" t="s">
+        <v>35</v>
+      </c>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
-      <c r="Q14" s="15"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="L15" s="15"/>
       <c r="M15" s="15"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
-      <c r="Q15" s="15"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Q15" s="42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="M16" s="15"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-    </row>
-    <row r="17" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="Q16" s="42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="J17" s="4"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
-    </row>
-    <row r="18" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-    </row>
-    <row r="19" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-    </row>
-    <row r="20" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-    </row>
-    <row r="21" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-    </row>
-    <row r="22" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-    </row>
-    <row r="23" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1049,8 +1125,8 @@
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="P3:S3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A6:B6"/>
